--- a/Documents/NewDifDac.xlsx
+++ b/Documents/NewDifDac.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -341,18 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,7 +353,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -377,10 +371,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,1334 +668,1442 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="5">
         <v>0.82330000000000003</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="5">
         <v>0.82089999999999996</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="5">
         <v>0.81820000000000004</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="5">
         <v>0.8276</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="5">
         <v>0.83</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="5">
         <v>0.83160000000000001</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="5">
         <v>0.82730000000000004</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="5">
         <v>0.82730000000000004</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="5">
         <v>0.83169999999999999</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="5">
         <v>0.83399999999999996</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="5">
         <v>0.83169999999999999</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="5">
         <v>0.83250000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>127</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="5">
         <v>1.0961000000000001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="5">
         <v>1.0913999999999999</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="5">
         <v>1.0926</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="5">
         <v>1.1011</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="5">
         <v>1.1049</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="5">
         <v>1.1104000000000001</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="5">
         <v>1.1017999999999999</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="5">
         <v>1.1021000000000001</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="5">
         <v>1.1051</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="5">
         <v>1.1112</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="5">
         <v>1.1104000000000001</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="5">
         <v>1.1103000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>255</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="5">
         <v>1.3733</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="5">
         <v>1.3647</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>1.3709</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="5">
         <v>1.3805000000000001</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="5">
         <v>1.3841000000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="5">
         <v>1.3940999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="5">
         <v>1.3791</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="5">
         <v>1.3794999999999999</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="5">
         <v>1.3822000000000001</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="5">
         <v>1.3897999999999999</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="5">
         <v>1.3902000000000001</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="5">
         <v>1.3912</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>383</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="5">
         <v>1.6488</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="5">
         <v>1.6398999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="5">
         <v>1.6451</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="5">
         <v>1.6585000000000001</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="5">
         <v>1.6604000000000001</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="5">
         <v>1.6798999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="5">
         <v>1.6555</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="5">
         <v>1.66</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="5">
         <v>1.6637999999999999</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="5">
         <v>1.6713</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="5">
         <v>1.6747000000000001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="5">
         <v>1.6702999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>511</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="5">
         <v>1.9260999999999999</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="5">
         <v>1.9133</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="5">
         <v>1.9234</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="5">
         <v>1.9379</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="5">
         <v>1.9397</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="5">
         <v>1.9637</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="5">
         <v>1.9329000000000001</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="5">
         <v>1.9374</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="5">
         <v>1.9410000000000001</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="5">
         <v>1.9499</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="5">
         <v>1.9545999999999999</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="5">
         <v>1.9512</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>639</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="5">
         <v>2.1983999999999999</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="5">
         <v>2.1848000000000001</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="5">
         <v>2.2000999999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="5">
         <v>2.2161</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="5">
         <v>2.2166000000000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="5">
         <v>2.2382</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="5">
         <v>2.2096</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="5">
         <v>2.2141000000000002</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="5">
         <v>2.2195999999999998</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="5">
         <v>2.2279</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="5">
         <v>2.2339000000000002</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="5">
         <v>2.2273000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>767</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="5">
         <v>2.4691000000000001</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="5">
         <v>2.4508000000000001</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="5">
         <v>2.4712999999999998</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="5">
         <v>2.4889999999999999</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="5">
         <v>2.488</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="5">
         <v>2.5144000000000002</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="5">
         <v>2.4822000000000002</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="5">
         <v>2.4853000000000001</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="5">
         <v>2.4910000000000001</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="5">
         <v>2.5068999999999999</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="5">
         <v>2.5068999999999999</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="5">
         <v>2.5024999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>895</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="5">
         <v>2.7233999999999998</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="5">
         <v>2.6947999999999999</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="5">
         <v>2.7033999999999998</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="5">
         <v>2.7464</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="5">
         <v>2.7233000000000001</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="5">
         <v>2.7393000000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="5">
         <v>2.7422</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="5">
         <v>2.7342</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="5">
         <v>2.7416</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="5">
         <v>2.7576999999999998</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="5">
         <v>2.7395</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="5">
         <v>2.7467000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>1023</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="5">
         <v>2.7397</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="5">
         <v>2.7078000000000002</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="5">
         <v>2.7145999999999999</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="5">
         <v>2.7633000000000001</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="5">
         <v>2.7347999999999999</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="5">
         <v>2.7488000000000001</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="5">
         <v>2.7755000000000001</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="5">
         <v>2.746</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="5">
         <v>2.7534000000000001</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="5">
         <v>2.7723</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="5">
         <v>2.7492999999999999</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="5">
         <v>2.7584</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="3">
         <v>0</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="5">
         <v>0.83289999999999997</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="5">
         <v>0.83340000000000003</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="5">
         <v>0.83230000000000004</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="5">
         <v>0.82920000000000005</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="5">
         <v>0.82979999999999998</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="5">
         <v>0.82450000000000001</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="5">
         <v>0.81479999999999997</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="5">
         <v>0.81589999999999996</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="5">
         <v>0.81579999999999997</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="5">
         <v>0.83109999999999995</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="5">
         <v>0.82799999999999996</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="5">
         <v>0.83150000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="3">
         <v>127</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="5">
         <v>1.1067</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="5">
         <v>1.1068</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="5">
         <v>1.1040000000000001</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="5">
         <v>1.1031</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="5">
         <v>1.1009</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="5">
         <v>1.0967</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="5">
         <v>1.0854999999999999</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="5">
         <v>1.0878000000000001</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="5">
         <v>1.0879000000000001</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="5">
         <v>1.1027</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="5">
         <v>1.0985</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="5">
         <v>1.1076999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="3">
         <v>255</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="5">
         <v>1.3854</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="5">
         <v>1.383</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="5">
         <v>1.3822000000000001</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="5">
         <v>1.3796999999999999</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="5">
         <v>1.3771</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="5">
         <v>1.3715999999999999</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="5">
         <v>1.3615999999999999</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="5">
         <v>1.3634999999999999</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="5">
         <v>1.3660000000000001</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="5">
         <v>1.3797999999999999</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="5">
         <v>1.3737999999999999</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="5">
         <v>1.3835</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="3">
         <v>383</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="5">
         <v>1.6647000000000001</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="5">
         <v>1.6619999999999999</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="5">
         <v>1.6556999999999999</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="5">
         <v>1.6558999999999999</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="5">
         <v>1.6516999999999999</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="5">
         <v>1.6478999999999999</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="5">
         <v>1.6341000000000001</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="5">
         <v>1.6356999999999999</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="5">
         <v>1.6398999999999999</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="5">
         <v>1.6553</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="5">
         <v>1.6518999999999999</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="5">
         <v>1.665</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="3">
         <v>511</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="5">
         <v>1.9435</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="5">
         <v>1.9379999999999999</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="5">
         <v>1.9339</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="5">
         <v>1.9326000000000001</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="5">
         <v>1.9279999999999999</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="5">
         <v>1.923</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="5">
         <v>1.9101999999999999</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="5">
         <v>1.9115</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="5">
         <v>1.9178999999999999</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="5">
         <v>1.9326000000000001</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="5">
         <v>1.9275</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="5">
         <v>1.9410000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="3">
         <v>639</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="5">
         <v>2.2254999999999998</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="5">
         <v>2.2170999999999998</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="5">
         <v>2.2128999999999999</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="5">
         <v>2.2115</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="5">
         <v>2.2027000000000001</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="5">
         <v>2.2042000000000002</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="5">
         <v>2.1842000000000001</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="5">
         <v>2.1865999999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="5">
         <v>2.1892999999999998</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="5">
         <v>2.2103999999999999</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="5">
         <v>2.2002999999999999</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="5">
         <v>2.2181999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="3">
         <v>767</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="5">
         <v>2.4981</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="5">
         <v>2.4866000000000001</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="5">
         <v>2.4849999999999999</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="5">
         <v>2.4824999999999999</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="5">
         <v>2.4725000000000001</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="5">
         <v>2.4735999999999998</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="5">
         <v>2.4561999999999999</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="5">
         <v>2.4567000000000001</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="5">
         <v>2.4622000000000002</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="5">
         <v>2.4823</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="5">
         <v>2.4700000000000002</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="5">
         <v>2.488</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="3">
         <v>895</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="5">
         <v>2.7574000000000001</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="5">
         <v>2.7372000000000001</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="5">
         <v>2.7399</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="5">
         <v>2.7414000000000001</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="5">
         <v>2.7254</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="5">
         <v>2.7326000000000001</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="5">
         <v>2.7130999999999998</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="5">
         <v>2.7130999999999998</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="5">
         <v>2.7225000000000001</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="5">
         <v>2.7334000000000001</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="5">
         <v>2.7271999999999998</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="5">
         <v>2.7347000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="4">
         <v>1023</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="5">
         <v>2.7753000000000001</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="5">
         <v>2.7509000000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="5">
         <v>2.7576000000000001</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="5">
         <v>2.7694999999999999</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="5">
         <v>2.7418</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="5">
         <v>2.7511999999999999</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="5">
         <v>2.7443</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="5">
         <v>2.7443</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="5">
         <v>2.7513000000000001</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="5">
         <v>2.7698999999999998</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="5">
         <v>2.7433999999999998</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="5">
         <v>2.7465000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="B25" s="5">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="3">
         <v>127</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="B26" s="5">
+        <v>1.1129</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.1108</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.1121000000000001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.1031</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.1009</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1.0967</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="3">
         <v>255</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="B27" s="5">
+        <v>1.3932</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.3911</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.3895999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.3796999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.3771</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.3715999999999999</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="3">
         <v>383</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="B28" s="5">
+        <v>1.6758</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.6716</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.6684000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.6558999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.6516999999999999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1.6478999999999999</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="3">
         <v>511</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="B29" s="5">
+        <v>1.9562999999999999</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.952</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.9459</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.9326000000000001</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.9279999999999999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.923</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="3">
         <v>639</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="B30" s="5">
+        <v>2.2421000000000002</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2.2364000000000002</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2.2242999999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.2115</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2.2027000000000001</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2.2042000000000002</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="3">
         <v>767</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="5">
+        <v>2.5154999999999998</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2.5087999999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.4958</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2.4824999999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2.4725000000000001</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.4735999999999998</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="3">
         <v>895</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="B32" s="5">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2.7347000000000001</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2.7465999999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2.7414000000000001</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2.7254</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2.7326000000000001</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="4">
         <v>1023</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="B33" s="5">
+        <v>2.7757999999999998</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2.7454000000000001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2.7604000000000002</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2.7694999999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2.7418</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2.7511999999999999</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="3">
         <v>0</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="3">
         <v>127</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="3">
         <v>255</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="3">
         <v>383</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="3">
         <v>511</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="3">
         <v>639</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="3">
         <v>767</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="3">
         <v>895</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="4">
         <v>1023</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="K23:M23"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/NewDifDac.xlsx
+++ b/Documents/NewDifDac.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\SDHCAL_DAQ\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>DAC Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,9 +78,6 @@
     <t>ASIC42</t>
   </si>
   <si>
-    <t>ASIC41</t>
-  </si>
-  <si>
     <t>DAC Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,15 +93,23 @@
     <t>Vth0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ASIC41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +356,18 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -369,18 +381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -478,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -655,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,77 +668,80 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="13" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -779,7 +782,7 @@
         <v>0.83250000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" s="3">
         <v>127</v>
       </c>
@@ -820,7 +823,7 @@
         <v>1.1103000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="3">
         <v>255</v>
       </c>
@@ -861,7 +864,7 @@
         <v>1.3912</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" s="3">
         <v>383</v>
       </c>
@@ -902,7 +905,7 @@
         <v>1.6702999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" s="3">
         <v>511</v>
       </c>
@@ -943,7 +946,7 @@
         <v>1.9512</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="3">
         <v>639</v>
       </c>
@@ -984,7 +987,7 @@
         <v>2.2273000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75">
       <c r="A9" s="3">
         <v>767</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>2.5024999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.75">
       <c r="A10" s="3">
         <v>895</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>2.7467000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" thickBot="1">
       <c r="A11" s="4">
         <v>1023</v>
       </c>
@@ -1107,71 +1110,71 @@
         <v>2.7584</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="3">
         <v>127</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>1.1076999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="3">
         <v>255</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>1.3835</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="3">
         <v>383</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>1.665</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="3">
         <v>511</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>1.9410000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="3">
         <v>639</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>2.2181999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="3">
         <v>767</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>2.488</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="3">
         <v>895</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>2.7347000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" thickBot="1">
       <c r="A22" s="4">
         <v>1023</v>
       </c>
@@ -1540,71 +1543,71 @@
         <v>2.7465000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:13" ht="15.75">
+      <c r="A23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75">
+      <c r="A24" s="11"/>
+      <c r="B24" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="3">
         <v>0</v>
       </c>
@@ -1626,14 +1629,26 @@
       <c r="G25" s="5">
         <v>0.82450000000000001</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H25" s="5">
+        <v>0.8246</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.82869999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="3">
         <v>127</v>
       </c>
@@ -1655,14 +1670,26 @@
       <c r="G26" s="5">
         <v>1.0967</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H26" s="5">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.0936999999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1.0968</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1.0972</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1.0982000000000001</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1.1023000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="3">
         <v>255</v>
       </c>
@@ -1684,14 +1711,26 @@
       <c r="G27" s="5">
         <v>1.3715999999999999</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.3693</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1.3736999999999999</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1.3738999999999999</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1.3738999999999999</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1.3803000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="3">
         <v>383</v>
       </c>
@@ -1713,14 +1752,26 @@
       <c r="G28" s="5">
         <v>1.6478999999999999</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="5">
+        <v>1.6567000000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.6501999999999999</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1.6513</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1.6511</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1.6614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="3">
         <v>511</v>
       </c>
@@ -1742,14 +1793,26 @@
       <c r="G29" s="5">
         <v>1.923</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H29" s="5">
+        <v>1.9355</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1.9220999999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.9272</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1.9281999999999999</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1.9269000000000001</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1.9396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="3">
         <v>639</v>
       </c>
@@ -1771,14 +1834,26 @@
       <c r="G30" s="5">
         <v>2.2042000000000002</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="5">
+        <v>2.2147999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2.1974</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2.2105999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2.2006999999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2.2016</v>
+      </c>
+      <c r="M30" s="5">
+        <v>2.2187999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="3">
         <v>767</v>
       </c>
@@ -1800,14 +1875,26 @@
       <c r="G31" s="5">
         <v>2.4735999999999998</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H31" s="5">
+        <v>2.4861</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2.4647000000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2.4802</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2.4712999999999998</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2.4702000000000002</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2.4895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="3">
         <v>895</v>
       </c>
@@ -1829,14 +1916,26 @@
       <c r="G32" s="5">
         <v>2.7326000000000001</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="5">
+        <v>2.7273000000000001</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2.6899000000000002</v>
+      </c>
+      <c r="J32" s="5">
+        <v>2.7079</v>
+      </c>
+      <c r="K32" s="5">
+        <v>2.7299000000000002</v>
+      </c>
+      <c r="L32" s="5">
+        <v>2.7094999999999998</v>
+      </c>
+      <c r="M32" s="5">
+        <v>2.7201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" thickBot="1">
       <c r="A33" s="4">
         <v>1023</v>
       </c>
@@ -1858,252 +1957,480 @@
       <c r="G33" s="5">
         <v>2.7511999999999999</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="H33" s="5">
+        <v>2.7402000000000002</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2.7109000000000001</v>
+      </c>
+      <c r="J33" s="5">
+        <v>2.7193000000000001</v>
+      </c>
+      <c r="K33" s="5">
+        <v>2.7521</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="M33" s="5">
+        <v>2.7305999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75">
+      <c r="A34" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75">
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="3">
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="5">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.8256</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.8357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" s="3">
         <v>127</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>1.1095999999999999</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.1156999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.1079000000000001</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.1006</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.0954999999999999</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.0976999999999999</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.1041000000000001</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.1011</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.1008</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1.107</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1.1121000000000001</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1.1135999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" s="3">
         <v>255</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>1.3877999999999999</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.3992</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.3878999999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.3808</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.3714</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1.3767</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1.3813</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1.3794</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1.3864000000000001</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1.3938999999999999</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1.3914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" s="3">
         <v>383</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>1.6651</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.6816</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.6644000000000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.6482000000000001</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1.6540999999999999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1.6546000000000001</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1.6569</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1.6575</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1.6685000000000001</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1.675</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1.6718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" s="3">
         <v>511</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>1.9433</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.9651000000000001</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.9441999999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.9382999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.9241999999999999</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1.9333</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1.9326000000000001</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1.9372</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1.9362999999999999</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1.9479</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1.9498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="3">
         <v>639</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>2.2189999999999999</v>
+      </c>
+      <c r="C41" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2.2256999999999998</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2.222</v>
+      </c>
+      <c r="F41" s="5">
+        <v>2.1993999999999998</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.2067000000000001</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2.2158000000000002</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2.2166999999999999</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2.2155999999999998</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2.2246000000000001</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2.2374999999999998</v>
+      </c>
+      <c r="M41" s="5">
+        <v>2.2334000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" s="3">
         <v>767</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="5">
+        <v>2.4921000000000002</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2.5259</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2.4998</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2.4977</v>
+      </c>
+      <c r="F42" s="5">
+        <v>2.4706999999999999</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.4817</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2.4883999999999999</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2.4906999999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2.4885999999999999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>2.4956</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="M42" s="5">
+        <v>2.5028999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="3">
         <v>895</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.7435</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2.7511000000000001</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2.7591999999999999</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.746</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.7448999999999999</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2.7399</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2.7427000000000001</v>
+      </c>
+      <c r="K43" s="5">
+        <v>2.7238000000000002</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2.6953</v>
+      </c>
+      <c r="M43" s="5">
+        <v>2.7029000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" thickBot="1">
       <c r="A44" s="4">
         <v>1023</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="B44" s="5">
+        <v>2.7656999999999998</v>
+      </c>
+      <c r="C44" s="5">
+        <v>2.7524999999999999</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2.7993000000000001</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2.7736999999999998</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.7860999999999998</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2.7799</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2.7538</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2.7570999999999999</v>
+      </c>
+      <c r="K44" s="5">
+        <v>2.7351000000000001</v>
+      </c>
+      <c r="L44" s="5">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="M44" s="5">
+        <v>2.7126000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
